--- a/Experiments/Measurements/Two Banners Back 2 Back/Straight Path/Antenna_1/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Back 2 Back/Straight Path/Antenna_1/Transformed_Coordinates.xlsx
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>178.8540303277707</v>
+        <v>178.854030327771</v>
       </c>
       <c r="H2" t="n">
-        <v>100.1848838150731</v>
+        <v>100.1848838150732</v>
       </c>
     </row>
     <row r="3">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>158.7994754707823</v>
+        <v>158.7994754707825</v>
       </c>
       <c r="H3" t="n">
-        <v>99.60412596556856</v>
+        <v>99.60412596556868</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>137.9633055156679</v>
+        <v>137.9633055156681</v>
       </c>
       <c r="H4" t="n">
-        <v>99.00190332358099</v>
+        <v>99.00190332358113</v>
       </c>
     </row>
     <row r="5">
@@ -592,7 +592,7 @@
         <v>118.3351688864955</v>
       </c>
       <c r="H5" t="n">
-        <v>98.59087727866988</v>
+        <v>98.59087727866978</v>
       </c>
     </row>
     <row r="6">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>92.43812818199746</v>
+        <v>92.43812818199753</v>
       </c>
       <c r="H6" t="n">
-        <v>93.46642780585833</v>
+        <v>93.46642780585823</v>
       </c>
     </row>
     <row r="7">
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>107.2983262808364</v>
+        <v>107.2983262808366</v>
       </c>
       <c r="H7" t="n">
-        <v>94.8667401389078</v>
+        <v>94.86674013890784</v>
       </c>
     </row>
     <row r="8">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>139.8708418014499</v>
+        <v>139.8708418014502</v>
       </c>
       <c r="H8" t="n">
-        <v>96.85197194563116</v>
+        <v>96.85197194563121</v>
       </c>
     </row>
     <row r="9">
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>158.7281072648221</v>
+        <v>158.7281072648223</v>
       </c>
       <c r="H9" t="n">
-        <v>96.12866284264398</v>
+        <v>96.1286628426441</v>
       </c>
     </row>
     <row r="10">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>135.5004791771591</v>
+        <v>135.5004791771593</v>
       </c>
       <c r="H10" t="n">
-        <v>95.48861315871649</v>
+        <v>95.48861315871662</v>
       </c>
     </row>
     <row r="11">
@@ -772,7 +772,7 @@
         <v>118.7942240945314</v>
       </c>
       <c r="H11" t="n">
-        <v>94.93550505579692</v>
+        <v>94.93550505579684</v>
       </c>
     </row>
     <row r="12">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>111.6086296800136</v>
+        <v>111.6086296800137</v>
       </c>
       <c r="H12" t="n">
-        <v>102.7289051507972</v>
+        <v>102.7289051507971</v>
       </c>
     </row>
     <row r="13">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>110.7974157014772</v>
+        <v>110.7974157014774</v>
       </c>
       <c r="H13" t="n">
-        <v>104.0564601743073</v>
+        <v>104.0564601743074</v>
       </c>
     </row>
     <row r="14">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>43.11161559649756</v>
+        <v>43.11161559649781</v>
       </c>
       <c r="H14" t="n">
-        <v>117.2607128950118</v>
+        <v>117.2607128950119</v>
       </c>
     </row>
     <row r="15">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>12.72401560762766</v>
+        <v>12.72401560762784</v>
       </c>
       <c r="H15" t="n">
-        <v>116.8577886612986</v>
+        <v>116.8577886612987</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>138.1287505024309</v>
+        <v>138.1287505024311</v>
       </c>
       <c r="H16" t="n">
-        <v>116.0997123514597</v>
+        <v>116.0997123514598</v>
       </c>
     </row>
     <row r="17">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>118.0174026225986</v>
+        <v>118.0174026225987</v>
       </c>
       <c r="H17" t="n">
-        <v>115.773645909586</v>
+        <v>115.7736459095859</v>
       </c>
     </row>
     <row r="18">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>86.38519889318361</v>
+        <v>86.38519889318368</v>
       </c>
       <c r="H18" t="n">
-        <v>132.0960840891223</v>
+        <v>132.0960840891222</v>
       </c>
     </row>
     <row r="19">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>125.4048383257148</v>
+        <v>125.4048383257151</v>
       </c>
       <c r="H19" t="n">
-        <v>133.1757488154119</v>
+        <v>133.175748815412</v>
       </c>
     </row>
     <row r="20">
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-61.13979122453096</v>
+        <v>-61.1397912245307</v>
       </c>
       <c r="H20" t="n">
-        <v>151.7911822932829</v>
+        <v>151.791182293283</v>
       </c>
     </row>
     <row r="21">
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>31.62401107310268</v>
+        <v>31.62401107310286</v>
       </c>
       <c r="H21" t="n">
-        <v>151.5132767491611</v>
+        <v>151.5132767491612</v>
       </c>
     </row>
     <row r="22">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>138.4404555107607</v>
+        <v>138.4404555107609</v>
       </c>
       <c r="H22" t="n">
         <v>151.2372910849878</v>
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>72.9200448128484</v>
+        <v>72.92004481284846</v>
       </c>
       <c r="H23" t="n">
-        <v>150.7893462668036</v>
+        <v>150.7893462668035</v>
       </c>
     </row>
     <row r="24">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>133.3782984332047</v>
+        <v>133.3782984332043</v>
       </c>
       <c r="H24" t="n">
-        <v>128.8455143583913</v>
+        <v>128.8455143583911</v>
       </c>
     </row>
     <row r="25">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>88.74351444334869</v>
+        <v>88.74351444334886</v>
       </c>
       <c r="H25" t="n">
-        <v>94.64358164461895</v>
+        <v>94.64358164461908</v>
       </c>
     </row>
     <row r="26">
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>95.81237396807967</v>
+        <v>95.81237396807985</v>
       </c>
       <c r="H26" t="n">
-        <v>94.28031346810204</v>
+        <v>94.28031346810218</v>
       </c>
     </row>
     <row r="27">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>139.69051589699</v>
+        <v>139.6905158969902</v>
       </c>
       <c r="H29" t="n">
-        <v>99.69554416357757</v>
+        <v>99.69554416357769</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>148.4140783059214</v>
+        <v>148.4140783059215</v>
       </c>
       <c r="H30" t="n">
-        <v>110.6205934278725</v>
+        <v>110.6205934278727</v>
       </c>
     </row>
     <row r="31">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>38.89059163084439</v>
+        <v>38.89059163084458</v>
       </c>
       <c r="H31" t="n">
-        <v>96.88856465525411</v>
+        <v>96.88856465525426</v>
       </c>
     </row>
     <row r="32">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>133.9438069072639</v>
+        <v>133.9438069072635</v>
       </c>
       <c r="H33" t="n">
-        <v>93.65262515875031</v>
+        <v>93.65262515875006</v>
       </c>
     </row>
     <row r="34">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>110.3609123868527</v>
+        <v>110.3609123868523</v>
       </c>
       <c r="H34" t="n">
-        <v>107.5963229785412</v>
+        <v>107.5963229785409</v>
       </c>
     </row>
     <row r="35">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>88.22997419037434</v>
+        <v>88.22997419037452</v>
       </c>
       <c r="H36" t="n">
-        <v>110.7740551320629</v>
+        <v>110.774055132063</v>
       </c>
     </row>
     <row r="37">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>133.7038519756431</v>
+        <v>133.7038519756427</v>
       </c>
       <c r="H37" t="n">
-        <v>99.33759601356763</v>
+        <v>99.33759601356738</v>
       </c>
     </row>
     <row r="38">
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>148.3983673773327</v>
+        <v>148.3983673773329</v>
       </c>
       <c r="H39" t="n">
-        <v>95.56123941369606</v>
+        <v>95.56123941369619</v>
       </c>
     </row>
     <row r="40">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>144.77705280201</v>
+        <v>144.7770528020099</v>
       </c>
       <c r="H40" t="n">
-        <v>131.1632351442563</v>
+        <v>131.1632351442562</v>
       </c>
     </row>
     <row r="41">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>148.9844426156404</v>
+        <v>148.9844426156406</v>
       </c>
       <c r="H42" t="n">
-        <v>94.14757305306337</v>
+        <v>94.1475730530635</v>
       </c>
     </row>
     <row r="43">
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>-27.79576591375</v>
+        <v>-27.79576591375037</v>
       </c>
       <c r="H44" t="n">
-        <v>143.4474956248922</v>
+        <v>143.447495624892</v>
       </c>
     </row>
     <row r="45">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>149.0101152211133</v>
+        <v>149.0101152211134</v>
       </c>
       <c r="H47" t="n">
-        <v>121.3300085759627</v>
+        <v>121.3300085759628</v>
       </c>
     </row>
     <row r="48">
@@ -1905,10 +1905,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>144.9779846426491</v>
+        <v>144.9779846426493</v>
       </c>
       <c r="H49" t="n">
-        <v>98.74191442495984</v>
+        <v>98.74191442495999</v>
       </c>
     </row>
     <row r="50">
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>134.552947016269</v>
+        <v>134.5529470162687</v>
       </c>
       <c r="H50" t="n">
-        <v>158.0006036057875</v>
+        <v>158.0006036057874</v>
       </c>
     </row>
     <row r="51">
@@ -1965,10 +1965,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>-60.7785603272591</v>
+        <v>-60.77856032725891</v>
       </c>
       <c r="H51" t="n">
-        <v>168.0829339447519</v>
+        <v>168.082933944752</v>
       </c>
     </row>
     <row r="52">
@@ -1995,10 +1995,10 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>131.5623244579047</v>
+        <v>131.5623244579045</v>
       </c>
       <c r="H52" t="n">
-        <v>63.40530876392333</v>
+        <v>63.40530876392322</v>
       </c>
     </row>
     <row r="53">
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>107.3768396432812</v>
+        <v>107.3768396432808</v>
       </c>
       <c r="H53" t="n">
-        <v>63.15074445660834</v>
+        <v>63.15074445660812</v>
       </c>
     </row>
     <row r="54">
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>128.2012517990438</v>
+        <v>128.201251799044</v>
       </c>
       <c r="H54" t="n">
-        <v>62.70456335306168</v>
+        <v>62.70456335306179</v>
       </c>
     </row>
     <row r="55">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>112.9192450024243</v>
+        <v>112.9192450024241</v>
       </c>
       <c r="H57" t="n">
-        <v>54.78262778321118</v>
+        <v>54.78262778321104</v>
       </c>
     </row>
     <row r="58">
@@ -2171,10 +2171,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>166.8733148743396</v>
+        <v>166.8733148743394</v>
       </c>
       <c r="H58" t="n">
-        <v>57.55496656867074</v>
+        <v>57.55496656867061</v>
       </c>
     </row>
     <row r="59">
@@ -2201,10 +2201,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>160.5432836152696</v>
+        <v>160.5432836152693</v>
       </c>
       <c r="H59" t="n">
-        <v>57.35963652735151</v>
+        <v>57.35963652735126</v>
       </c>
     </row>
     <row r="60">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>140.8730741296999</v>
+        <v>140.8730741297001</v>
       </c>
       <c r="H60" t="n">
-        <v>57.10550308151171</v>
+        <v>57.10550308151183</v>
       </c>
     </row>
     <row r="61">
@@ -2321,10 +2321,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>98.99930622630264</v>
+        <v>98.99930622630245</v>
       </c>
       <c r="H63" t="n">
-        <v>69.39256974288685</v>
+        <v>69.39256974288676</v>
       </c>
     </row>
     <row r="64">
@@ -2351,10 +2351,10 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>119.2542076349933</v>
+        <v>119.2542076349931</v>
       </c>
       <c r="H64" t="n">
-        <v>87.50441971055632</v>
+        <v>87.50441971055623</v>
       </c>
     </row>
     <row r="65">
@@ -2381,10 +2381,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>98.46637255487504</v>
+        <v>98.46637255487467</v>
       </c>
       <c r="H65" t="n">
-        <v>87.30710991328151</v>
+        <v>87.30710991328135</v>
       </c>
     </row>
     <row r="66">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>140.8090587235465</v>
+        <v>140.8090587235467</v>
       </c>
       <c r="H66" t="n">
-        <v>87.14701067991821</v>
+        <v>87.14701067991828</v>
       </c>
     </row>
     <row r="67">
@@ -2501,10 +2501,10 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>50.21802854405279</v>
+        <v>50.21802854405261</v>
       </c>
       <c r="H69" t="n">
-        <v>107.9008067881318</v>
+        <v>107.9008067881317</v>
       </c>
     </row>
     <row r="70">
@@ -2531,10 +2531,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>-52.91840134839393</v>
+        <v>-52.91840134839411</v>
       </c>
       <c r="H70" t="n">
-        <v>130.3997678631155</v>
+        <v>130.3997678631154</v>
       </c>
     </row>
     <row r="71">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>115.3743356701739</v>
+        <v>115.3743356701735</v>
       </c>
       <c r="H71" t="n">
-        <v>126.634713949793</v>
+        <v>126.6347139497929</v>
       </c>
     </row>
     <row r="72">
@@ -2591,10 +2591,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>-35.61083913474781</v>
+        <v>-35.61083913474763</v>
       </c>
       <c r="H72" t="n">
-        <v>129.9963952982817</v>
+        <v>129.9963952982818</v>
       </c>
     </row>
     <row r="73">
@@ -2651,10 +2651,10 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>73.56854416128446</v>
+        <v>73.56854416128483</v>
       </c>
       <c r="H74" t="n">
-        <v>79.20881241425896</v>
+        <v>79.20881241425917</v>
       </c>
     </row>
     <row r="75">
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>85.67128410408468</v>
+        <v>85.67128410408488</v>
       </c>
       <c r="H75" t="n">
-        <v>136.5617470197083</v>
+        <v>136.5617470197084</v>
       </c>
     </row>
     <row r="76">
@@ -2711,10 +2711,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>33.05491716066336</v>
+        <v>33.05491716066305</v>
       </c>
       <c r="H76" t="n">
-        <v>144.1847888071367</v>
+        <v>144.1847888071365</v>
       </c>
     </row>
     <row r="77">
@@ -2741,10 +2741,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.02621125763266532</v>
+        <v>0.02621125763303811</v>
       </c>
       <c r="H77" t="n">
-        <v>139.4287799961464</v>
+        <v>139.4287799961465</v>
       </c>
     </row>
     <row r="78">
@@ -2771,10 +2771,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>113.5594950351302</v>
+        <v>113.5594950351298</v>
       </c>
       <c r="H78" t="n">
-        <v>57.14489808851773</v>
+        <v>57.14489808851748</v>
       </c>
     </row>
     <row r="79">
@@ -2801,10 +2801,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>135.1907562232787</v>
+        <v>135.1907562232785</v>
       </c>
       <c r="H79" t="n">
-        <v>56.58249814709631</v>
+        <v>56.58249814709618</v>
       </c>
     </row>
     <row r="80">
@@ -2831,10 +2831,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>150.5899755890924</v>
+        <v>150.5899755890927</v>
       </c>
       <c r="H80" t="n">
-        <v>54.28575636628967</v>
+        <v>54.28575636628994</v>
       </c>
     </row>
     <row r="81">
@@ -2861,10 +2861,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>145.5589921099577</v>
+        <v>145.5589921099576</v>
       </c>
       <c r="H81" t="n">
-        <v>54.80241674869286</v>
+        <v>54.80241674869274</v>
       </c>
     </row>
     <row r="82">
@@ -2891,10 +2891,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>105.6003621347746</v>
+        <v>105.6003621347748</v>
       </c>
       <c r="H82" t="n">
-        <v>75.98804420483305</v>
+        <v>75.98804420483314</v>
       </c>
     </row>
     <row r="83">
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>130.6712700947947</v>
+        <v>130.6712700947949</v>
       </c>
       <c r="H83" t="n">
-        <v>54.08970784283231</v>
+        <v>54.08970784283245</v>
       </c>
     </row>
     <row r="84">
@@ -2981,10 +2981,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>98.54272461618372</v>
+        <v>98.54272461618342</v>
       </c>
       <c r="H85" t="n">
-        <v>56.66236720450448</v>
+        <v>56.66236720450413</v>
       </c>
     </row>
     <row r="86">
@@ -3011,10 +3011,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>137.3362221927496</v>
+        <v>137.33622219275</v>
       </c>
       <c r="H86" t="n">
-        <v>58.37152363915555</v>
+        <v>58.3715236391558</v>
       </c>
     </row>
     <row r="87">
@@ -3071,10 +3071,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>160.1378219529574</v>
+        <v>160.137821952957</v>
       </c>
       <c r="H88" t="n">
-        <v>69.45274782924474</v>
+        <v>69.45274782924453</v>
       </c>
     </row>
     <row r="89">
@@ -3131,10 +3131,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>130.6596957859995</v>
+        <v>130.6596957859997</v>
       </c>
       <c r="H90" t="n">
-        <v>63.37229537476301</v>
+        <v>63.37229537476313</v>
       </c>
     </row>
     <row r="91">
@@ -3161,10 +3161,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>157.1962711887204</v>
+        <v>157.1962711887201</v>
       </c>
       <c r="H91" t="n">
-        <v>61.31914608457539</v>
+        <v>61.31914608457507</v>
       </c>
     </row>
     <row r="92">
@@ -3191,10 +3191,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>140.6485014417691</v>
+        <v>140.6485014417693</v>
       </c>
       <c r="H92" t="n">
-        <v>79.93288789913029</v>
+        <v>79.93288789913039</v>
       </c>
     </row>
     <row r="93">
@@ -3221,10 +3221,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>128.2469018180095</v>
+        <v>128.2469018180093</v>
       </c>
       <c r="H93" t="n">
-        <v>69.21662645424017</v>
+        <v>69.21662645424006</v>
       </c>
     </row>
     <row r="94">
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>75.22403287935593</v>
+        <v>75.22403287935575</v>
       </c>
       <c r="H94" t="n">
         <v>112.2030679308929</v>
@@ -3281,10 +3281,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>56.20316264146588</v>
+        <v>56.20316264146558</v>
       </c>
       <c r="H95" t="n">
-        <v>116.5499967440086</v>
+        <v>116.5499967440084</v>
       </c>
     </row>
     <row r="96">
@@ -3311,10 +3311,10 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>-27.53136897073935</v>
+        <v>-27.53136897073898</v>
       </c>
       <c r="H96" t="n">
-        <v>121.1317476108042</v>
+        <v>121.1317476108043</v>
       </c>
     </row>
     <row r="97">
@@ -3341,10 +3341,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>54.45654645332088</v>
+        <v>54.45654645332106</v>
       </c>
       <c r="H97" t="n">
-        <v>90.75499161120575</v>
+        <v>90.75499161120584</v>
       </c>
     </row>
     <row r="98">
@@ -3401,10 +3401,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>141.0481181855043</v>
+        <v>141.048118185504</v>
       </c>
       <c r="H99" t="n">
-        <v>102.3209668628278</v>
+        <v>102.3209668628275</v>
       </c>
     </row>
     <row r="100">
@@ -3431,10 +3431,10 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>52.88312593472256</v>
+        <v>52.88312593472293</v>
       </c>
       <c r="H100" t="n">
-        <v>107.6220732406773</v>
+        <v>107.6220732406775</v>
       </c>
     </row>
     <row r="101">
